--- a/docs/pkg_test_automation.xlsx
+++ b/docs/pkg_test_automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremyko\MyProject\NTELS\2018_19_20_ntels_dev\AUTO_TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F06043-10D5-4ED3-AFC9-BD5CB27AE7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4AA34B-82A1-4247-A2C5-0284B8AB78FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="221">
   <si>
     <t>필요 기능</t>
   </si>
@@ -169,14 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        ├── 20200620172022_auto_test_report.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        └── 20200623172022_auto_test_report.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    │           │</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,30 +206,6 @@
   </si>
   <si>
     <t>5G_SIMUL 을 수정해서 특정 폴더 데이터를 전송할수 있게 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">report 결과 파일 예) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>20200620172022_auto_test_report.txt</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1464,66 +1432,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>---------------------------------------------------------
-TEST START 2020-06-30 16:50:09
----------------------------------------------------------
-- pkg_dir = /root/mydev/let-me-test/sample/test_pkg/
-- xml_cfg_path = /root/CFG/NMD_Config.xml
-- package_name = OFCS
-- system_name  = upms_a
-- log_level    = INFO
-- temp_internal_use_only_dir = /root/mydev/let-me-test/sample/test_pkg/do_not_delete_internal_use
-[GROUP]    group_001
-    [TEST]    test001
-        [TSPEC]   spec001.tspec
-        [PASSED]  elapsed : 3.176352 sec
-        [TSPEC]   spec002.tspec
-        [PASSED]  elapsed : 0.000522 sec
-    [PASSED]  test001 -&gt; elapsed : 3.177814 sec
-[PASSED]   group_001 -&gt; elapsed : 3.179936 secs
----------------------------------------------------------
-TOTAL 1 TEST OK
----------------------------------------------------------
-TEST END   2020-06-30 16:50:13 -&gt; elapsed : 3.201327 sec
----------------------------------------------------------</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성공한 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt; ./pkg_test -t group_001.test001  /root/mydev/let-me-test/sample/test_pkg
-  ---------------------------------------------------------
-  TEST START 2020-06-30 16:53:12
-  ---------------------------------------------------------
-  - pkg_dir = /root/mydev/let-me-test/sample/test_pkg/
-  - run specific test = ['group_001.test001']
-  - xml_cfg_path = /root/CFG/NMD_Config.xml
-  - package_name = OFCS
-  - system_name  = upms_a
-  - log_level    = INFO
-  - temp_internal_use_only_dir = /root/mydev/let-me-test/sample/test_pkg/do_not_delete_internal_use
-  [run specific test] group_001.test001
-  [GROUP]    group_001
-      [TEST]    test001
-          [TSPEC]   spec001.tspec
-        error : assert failed : 1 != 2
-         - tspec   =&gt; /root/mydev/let-me-test/sample/test_pkg/group_001/test001/tspecs/spec001.tspec
-         - line no =&gt; 7
-         - test    =&gt; test_eq(1,2)
-          [FAILED]
-          [TSPEC]   spec002.tspec
-          [PASSED]  elapsed : 0.000528 sec
-      [PASSED]  test001 -&gt; elapsed : 0.00254 sec
-  [PASSED]   group_001 -&gt; elapsed : 0.00271 secs
-  ---------------------------------------------------------
-  TOTAL 1 TEST
-        1 OK
-        1 FAILED
-  ---------------------------------------------------------
-  TEST END   2020-06-30 16:53:12 -&gt; elapsed : 0.00584 sec
-  ---------------------------------------------------------</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1909,6 +1818,113 @@
   </si>
   <si>
     <t xml:space="preserve">    │       │   └── test_xml_db_files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; ./pkg_test -t group_fail_test.test00A  /root/mydev/let-me-test/sample/test_pkg
+ ---------------------------------------------------------
+TEST START 2020-07-02 17:12:30
+---------------------------------------------------------
+- pkg_dir = /root/mydev/let-me-test/sample/test_pkg/
+- run specific test = ['group_fail_test.test00A']
+- xml_cfg_path [/root/CFG/NMD_Config.xml]
+- xml_db_path  [/OPER/XML_FILE]
+- package_name [OFCS]
+- system_name  [upms_a]
+- cli_name     [pfmCLI]
+- log_level    [INFO]
+- log_base_path[/LOG/]
+[run specific test] group_fail_test.test00A
+[GROUP]    group_fail_test
+    [TEST]    test00A
+        [TSPEC]   spec005.tspec
+          lmt exception : assert failed : 1 != 2
+           - tspec   =&gt; /root/mydev/let-me-test/sample/test_pkg/group_fail_test/test00A/tspecs/spec005.tspec
+           - line no =&gt; 6
+           - test    =&gt; test_eq(1,2)
+        [FAILED]
+    [FAILED]  test00A -&gt; elapsed : 0.001507 sec
+[FAILED]   group_fail_test -&gt; elapsed : 0.001852 secs
+---------------------------------------------------------
+TOTAL 1 TEST
+      0 OK
+      1 FAILED
+        failed test : /root/mydev/let-me-test/sample/test_pkg/group_fail_test/test00A
+---------------------------------------------------------
+TEST END   2020-07-02 17:12:30 -&gt; elapsed : 0.006345 sec
+--------------------------------------------------------- </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"---------------------------------------------------------
+TEST START 2020-07-02 17:14:20
+---------------------------------------------------------
+- pkg_dir = /root/mydev/let-me-test/sample/test_pkg/
+- run specific test = ['group_001.test001']
+- xml_cfg_path [/root/CFG/NMD_Config.xml]
+- xml_db_path  [/OPER/XML_FILE]
+- package_name [OFCS]
+- system_name  [upms_a]
+- cli_name     [pfmCLI]
+- log_level    [INFO]
+- log_base_path[/LOG/]
+[run specific test] group_001.test001
+[GROUP]    group_001
+    [TEST]    test001
+        [TSPEC]   spec001.tspec
+          cmd : pfmCLI -u kojh1 -p 1 -c STOP-PRC:OFCS:upms_a:GTP_SMF
+          wait_secs start : args = 3
+          cmd : pfmCLI -u kojh1 -p 1 -c STAR-PRC:OFCS:upms_a:GTP_SMF:FM:FMS01
+          cmd : pfmCLI -u kojh1 -p 1 -c DISP-PRC:OFCS:upms_a:GTP_SMF:FM:FMS01
+          cmd : tail -72 /LOG/GTP_SMF/FMS01_1.20200702 | fgrep "redis_pipeline_threshold_ [30]"
+          grep file   =&gt; /LOG/GTP_SMF/FMS01_1.20200702
+          grep output =&gt; [17:14:26:485][INFO   ] [cdc_data_generator.cpp:276] (GetFmXmlConfig) redis_pipeline_threshold_ [30]
+        [PASSED]  spec001.tspec : elapsed : 7.913615 sec
+        [TSPEC]   spec002.tspec
+        [PASSED]  spec002.tspec : elapsed : 0.002531 sec
+    [PASSED]  test001 -&gt; elapsed : 7.917025 sec
+[PASSED]   group_001 -&gt; elapsed : 7.917273 secs
+---------------------------------------------------------
+TOTAL 1 TEST OK
+---------------------------------------------------------
+TEST END   2020-07-02 17:14:28 -&gt; elapsed : 7.921686 sec
+---------------------------------------------------------</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">report 결과 파일 예) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>20200702_171420_auto_test_report.txt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        ├── 20200620_172022_auto_test_report.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        └── 20200623_172022_auto_test_report.txt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2408,28 +2424,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2437,96 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2748,8 +2764,8 @@
   </sheetPr>
   <dimension ref="A1:H204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2765,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" customHeight="1">
       <c r="B1" s="49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="15.75" customHeight="1">
@@ -2778,7 +2794,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2815,10 +2831,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2837,11 +2853,11 @@
     <row r="8" spans="2:8" ht="18" customHeight="1">
       <c r="B8" s="7"/>
       <c r="C8" s="32" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2850,11 +2866,11 @@
     <row r="9" spans="2:8" ht="18" customHeight="1">
       <c r="B9" s="7"/>
       <c r="C9" s="32" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2881,10 +2897,12 @@
     <row r="12" spans="2:8" ht="18" customHeight="1">
       <c r="B12" s="7"/>
       <c r="C12" s="32" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2892,10 +2910,10 @@
     <row r="13" spans="2:8" ht="18" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="32" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2905,10 +2923,10 @@
     <row r="14" spans="2:8" ht="18" customHeight="1">
       <c r="B14" s="7"/>
       <c r="C14" s="32" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2918,9 +2936,11 @@
     <row r="15" spans="2:8" ht="18" customHeight="1">
       <c r="B15" s="7"/>
       <c r="C15" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2929,7 +2949,7 @@
     <row r="16" spans="2:8" ht="18" customHeight="1">
       <c r="B16" s="7"/>
       <c r="C16" s="32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
@@ -2940,10 +2960,10 @@
     <row r="17" spans="2:8" ht="18" customHeight="1">
       <c r="B17" s="7"/>
       <c r="C17" s="32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2953,13 +2973,13 @@
     <row r="18" spans="2:8" ht="18" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2968,10 +2988,10 @@
     <row r="19" spans="2:8" ht="18" customHeight="1">
       <c r="B19" s="7"/>
       <c r="C19" s="32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2981,10 +3001,10 @@
     <row r="20" spans="2:8" ht="18" customHeight="1">
       <c r="B20" s="7"/>
       <c r="C20" s="32" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2994,10 +3014,10 @@
     <row r="21" spans="2:8" ht="18" customHeight="1">
       <c r="B21" s="7"/>
       <c r="C21" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3037,7 +3057,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3050,7 +3070,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3063,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3073,14 +3093,14 @@
     <row r="28" spans="2:8" ht="18" customHeight="1">
       <c r="B28" s="7"/>
       <c r="C28" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3091,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -3104,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3117,7 +3137,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -3130,11 +3150,11 @@
         <v>35</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3171,10 +3191,10 @@
     <row r="36" spans="2:8" ht="14.1" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3195,10 +3215,10 @@
     <row r="38" spans="2:8" ht="14.1" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3219,10 +3239,10 @@
     <row r="40" spans="2:8" ht="14.1" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3243,10 +3263,10 @@
     <row r="42" spans="2:8" ht="14.1" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3267,10 +3287,10 @@
     <row r="44" spans="2:8" ht="14.1" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3280,7 +3300,7 @@
     <row r="45" spans="2:8" ht="14.1" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="1"/>
@@ -3291,10 +3311,10 @@
     <row r="46" spans="2:8" ht="14.1" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3315,10 +3335,10 @@
     <row r="48" spans="2:8" ht="14.1" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -3328,7 +3348,7 @@
     <row r="49" spans="2:8" ht="14.1" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="1"/>
@@ -3339,10 +3359,10 @@
     <row r="50" spans="2:8" ht="14.1" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="97" t="s">
-        <v>153</v>
+        <v>184</v>
+      </c>
+      <c r="D50" s="101" t="s">
+        <v>150</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -3352,9 +3372,9 @@
     <row r="51" spans="2:8" ht="14.1" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" s="97"/>
+        <v>183</v>
+      </c>
+      <c r="D51" s="101"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3374,7 +3394,7 @@
     <row r="53" spans="2:8" ht="14.1" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="74" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>12</v>
@@ -3387,7 +3407,7 @@
     <row r="54" spans="2:8" ht="14.1" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="1"/>
@@ -3398,7 +3418,7 @@
     <row r="55" spans="2:8" ht="14.1" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="17" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>41</v>
@@ -3411,7 +3431,7 @@
     <row r="56" spans="2:8" ht="14.1" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="17" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="1"/>
@@ -3430,8 +3450,8 @@
     </row>
     <row r="58" spans="2:8" ht="16.5">
       <c r="B58" s="10"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="105"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3439,12 +3459,12 @@
     </row>
     <row r="59" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="79"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="96"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3452,8 +3472,8 @@
     </row>
     <row r="60" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="12"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3461,10 +3481,10 @@
     </row>
     <row r="61" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="7"/>
-      <c r="C61" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="79"/>
+      <c r="C61" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="96"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3472,8 +3492,8 @@
     </row>
     <row r="62" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="7"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="96"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3481,10 +3501,10 @@
     </row>
     <row r="63" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="7"/>
-      <c r="C63" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="79"/>
+      <c r="C63" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="96"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3492,10 +3512,10 @@
     </row>
     <row r="64" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="7"/>
-      <c r="C64" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="99"/>
+      <c r="C64" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="103"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3503,10 +3523,10 @@
     </row>
     <row r="65" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="7"/>
-      <c r="C65" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" s="99"/>
+      <c r="C65" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="103"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3514,10 +3534,10 @@
     </row>
     <row r="66" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="7"/>
-      <c r="C66" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="87"/>
+      <c r="C66" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="109"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3525,8 +3545,8 @@
     </row>
     <row r="67" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="7"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3534,10 +3554,10 @@
     </row>
     <row r="68" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="7"/>
-      <c r="C68" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="79"/>
+      <c r="C68" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="96"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3545,10 +3565,10 @@
     </row>
     <row r="69" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="7"/>
-      <c r="C69" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="79"/>
+      <c r="C69" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="96"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3556,10 +3576,10 @@
     </row>
     <row r="70" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="7"/>
-      <c r="C70" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="79"/>
+      <c r="C70" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="96"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3567,10 +3587,10 @@
     </row>
     <row r="71" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="7"/>
-      <c r="C71" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="79"/>
+      <c r="C71" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="96"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3578,10 +3598,10 @@
     </row>
     <row r="72" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="7"/>
-      <c r="C72" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="79"/>
+      <c r="C72" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="96"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3589,8 +3609,8 @@
     </row>
     <row r="73" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="7"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3598,10 +3618,10 @@
     </row>
     <row r="74" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="7"/>
-      <c r="C74" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="87"/>
+      <c r="C74" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="109"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3609,10 +3629,10 @@
     </row>
     <row r="75" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="7"/>
-      <c r="C75" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="87"/>
+      <c r="C75" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="109"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3620,8 +3640,8 @@
     </row>
     <row r="76" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="7"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="96"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3629,10 +3649,10 @@
     </row>
     <row r="77" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B77" s="7"/>
-      <c r="C77" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="79"/>
+      <c r="C77" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="96"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3640,8 +3660,8 @@
     </row>
     <row r="78" spans="2:8" ht="15.75" customHeight="1">
       <c r="B78" s="8"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="91"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="111"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3649,10 +3669,10 @@
     </row>
     <row r="79" spans="2:8" ht="62.25" customHeight="1">
       <c r="B79" s="10"/>
-      <c r="C79" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="104"/>
+      <c r="C79" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="100"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3660,16 +3680,16 @@
     </row>
     <row r="80" spans="2:8" ht="27">
       <c r="B80" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D80" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3678,12 +3698,14 @@
     <row r="81" spans="2:8" ht="61.5" customHeight="1">
       <c r="B81" s="11"/>
       <c r="C81" s="70" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D81" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3691,16 +3713,16 @@
     <row r="82" spans="2:8" ht="54">
       <c r="B82" s="11"/>
       <c r="C82" s="70" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D82" s="36" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -3708,13 +3730,13 @@
     <row r="83" spans="2:8" ht="63" customHeight="1">
       <c r="B83" s="11"/>
       <c r="C83" s="71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3723,13 +3745,13 @@
     <row r="84" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="11"/>
       <c r="C84" s="71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3738,10 +3760,10 @@
     <row r="85" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="7"/>
       <c r="C85" s="71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3751,10 +3773,10 @@
     <row r="86" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B86" s="7"/>
       <c r="C86" s="71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -3763,10 +3785,10 @@
     <row r="87" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B87" s="7"/>
       <c r="C87" s="70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D87" s="38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3776,10 +3798,10 @@
     <row r="88" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B88" s="7"/>
       <c r="C88" s="72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3789,10 +3811,10 @@
     <row r="89" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B89" s="7"/>
       <c r="C89" s="72" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3802,10 +3824,10 @@
     <row r="90" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="7"/>
       <c r="C90" s="71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3815,16 +3837,16 @@
     <row r="91" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B91" s="7"/>
       <c r="C91" s="72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -3832,16 +3854,16 @@
     <row r="92" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="7"/>
       <c r="C92" s="73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D92" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" s="61" t="s">
         <v>96</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F92" s="61" t="s">
-        <v>99</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -3849,13 +3871,13 @@
     <row r="93" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="7"/>
       <c r="C93" s="73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3864,10 +3886,10 @@
     <row r="94" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="7"/>
       <c r="C94" s="73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3877,10 +3899,10 @@
     <row r="95" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B95" s="7"/>
       <c r="C95" s="73" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3890,10 +3912,10 @@
     <row r="96" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B96" s="7"/>
       <c r="C96" s="73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D96" s="67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3903,10 +3925,10 @@
     <row r="97" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D97" s="67" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3916,13 +3938,13 @@
     <row r="98" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="7"/>
       <c r="C98" s="72" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -3930,7 +3952,7 @@
     <row r="99" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="7"/>
       <c r="C99" s="73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D99" s="68" t="s">
         <v>7</v>
@@ -3943,10 +3965,10 @@
     <row r="100" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="7"/>
       <c r="C100" s="73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3956,10 +3978,10 @@
     <row r="101" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="7"/>
       <c r="C101" s="73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D101" s="68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3969,10 +3991,10 @@
     <row r="102" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="7"/>
       <c r="C102" s="73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3982,10 +4004,10 @@
     <row r="103" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="7"/>
       <c r="C103" s="73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D103" s="66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3995,10 +4017,10 @@
     <row r="104" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B104" s="7"/>
       <c r="C104" s="73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -4008,7 +4030,7 @@
     <row r="105" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B105" s="7"/>
       <c r="C105" s="73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>39</v>
@@ -4021,13 +4043,13 @@
     <row r="106" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B106" s="7"/>
       <c r="C106" s="73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -4036,10 +4058,10 @@
     <row r="107" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="7"/>
       <c r="C107" s="71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4049,10 +4071,10 @@
     <row r="108" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B108" s="7"/>
       <c r="C108" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -4062,12 +4084,14 @@
     <row r="109" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="7"/>
       <c r="C109" s="73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E109" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4075,10 +4099,10 @@
     <row r="110" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B110" s="7"/>
       <c r="C110" s="69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4088,10 +4112,10 @@
     <row r="111" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="7"/>
       <c r="C111" s="69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -4101,7 +4125,7 @@
     <row r="112" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B112" s="7"/>
       <c r="C112" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D112" s="68" t="s">
         <v>6</v>
@@ -4114,10 +4138,10 @@
     <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B113" s="7"/>
       <c r="C113" s="69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D113" s="68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -4135,8 +4159,8 @@
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B115" s="35"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="93"/>
+      <c r="C115" s="112"/>
+      <c r="D115" s="113"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -4144,10 +4168,10 @@
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B116" s="35"/>
-      <c r="C116" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D116" s="85"/>
+      <c r="C116" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" s="115"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -4164,10 +4188,10 @@
     </row>
     <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B118" s="35"/>
-      <c r="C118" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D118" s="81"/>
+      <c r="C118" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="89"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -4175,10 +4199,10 @@
     </row>
     <row r="119" spans="1:8" ht="130.5" customHeight="1">
       <c r="B119" s="35"/>
-      <c r="C119" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="D119" s="79"/>
+      <c r="C119" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" s="96"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -4186,8 +4210,8 @@
     </row>
     <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B120" s="35"/>
-      <c r="C120" s="78"/>
-      <c r="D120" s="79"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="96"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -4195,10 +4219,10 @@
     </row>
     <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B121" s="35"/>
-      <c r="C121" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="D121" s="85"/>
+      <c r="C121" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="115"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -4215,13 +4239,13 @@
     </row>
     <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A123" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B123" s="35"/>
-      <c r="C123" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" s="81"/>
+      <c r="C123" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123" s="89"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -4229,10 +4253,10 @@
     </row>
     <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B124" s="35"/>
-      <c r="C124" s="82" t="s">
-        <v>55</v>
-      </c>
-      <c r="D124" s="83"/>
+      <c r="C124" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="85"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -4240,10 +4264,10 @@
     </row>
     <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B125" s="35"/>
-      <c r="C125" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" s="81"/>
+      <c r="C125" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="D125" s="89"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -4251,10 +4275,10 @@
     </row>
     <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B126" s="35"/>
-      <c r="C126" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" s="83"/>
+      <c r="C126" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="85"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -4262,10 +4286,10 @@
     </row>
     <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B127" s="35"/>
-      <c r="C127" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D127" s="81"/>
+      <c r="C127" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" s="89"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -4273,10 +4297,10 @@
     </row>
     <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B128" s="35"/>
-      <c r="C128" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D128" s="83"/>
+      <c r="C128" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="85"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -4284,10 +4308,10 @@
     </row>
     <row r="129" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B129" s="35"/>
-      <c r="C129" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="D129" s="83"/>
+      <c r="C129" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="85"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -4295,10 +4319,10 @@
     </row>
     <row r="130" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="35"/>
-      <c r="C130" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D130" s="81"/>
+      <c r="C130" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D130" s="89"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -4306,10 +4330,10 @@
     </row>
     <row r="131" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="35"/>
-      <c r="C131" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D131" s="79"/>
+      <c r="C131" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="96"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -4317,10 +4341,10 @@
     </row>
     <row r="132" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="35"/>
-      <c r="C132" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D132" s="81"/>
+      <c r="C132" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D132" s="89"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -4329,7 +4353,7 @@
     <row r="133" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="35"/>
       <c r="C133" s="63" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D133" s="46"/>
       <c r="E133" s="1"/>
@@ -4339,10 +4363,10 @@
     </row>
     <row r="134" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="35"/>
-      <c r="C134" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D134" s="81"/>
+      <c r="C134" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134" s="89"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -4351,7 +4375,7 @@
     <row r="135" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="35"/>
       <c r="C135" s="62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D135" s="24"/>
       <c r="E135" s="1"/>
@@ -4361,10 +4385,10 @@
     </row>
     <row r="136" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="35"/>
-      <c r="C136" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D136" s="81"/>
+      <c r="C136" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D136" s="89"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -4373,7 +4397,7 @@
     <row r="137" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="35"/>
       <c r="C137" s="62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D137" s="24"/>
       <c r="E137" s="1"/>
@@ -4383,10 +4407,10 @@
     </row>
     <row r="138" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="35"/>
-      <c r="C138" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D138" s="81"/>
+      <c r="C138" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="89"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -4395,7 +4419,7 @@
     <row r="139" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="35"/>
       <c r="C139" s="62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D139" s="24"/>
       <c r="E139" s="1"/>
@@ -4405,10 +4429,10 @@
     </row>
     <row r="140" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="35"/>
-      <c r="C140" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D140" s="81"/>
+      <c r="C140" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="89"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -4417,7 +4441,7 @@
     <row r="141" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="35"/>
       <c r="C141" s="62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D141" s="24"/>
       <c r="E141" s="1"/>
@@ -4427,10 +4451,10 @@
     </row>
     <row r="142" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="35"/>
-      <c r="C142" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="D142" s="81"/>
+      <c r="C142" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D142" s="89"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -4439,7 +4463,7 @@
     <row r="143" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="35"/>
       <c r="C143" s="62" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D143" s="24"/>
       <c r="E143" s="1"/>
@@ -4449,10 +4473,10 @@
     </row>
     <row r="144" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="35"/>
-      <c r="C144" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D144" s="81"/>
+      <c r="C144" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="89"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -4460,10 +4484,10 @@
     </row>
     <row r="145" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="35"/>
-      <c r="C145" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D145" s="81"/>
+      <c r="C145" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="89"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -4489,12 +4513,12 @@
     </row>
     <row r="148" spans="2:8" ht="16.5">
       <c r="B148" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C148" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" s="96"/>
+        <v>55</v>
+      </c>
+      <c r="C148" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="D148" s="83"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -4512,7 +4536,7 @@
     <row r="150" spans="2:8" ht="16.5">
       <c r="B150" s="11"/>
       <c r="C150" s="42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="1"/>
@@ -4522,10 +4546,10 @@
     </row>
     <row r="151" spans="2:8" ht="301.5" customHeight="1">
       <c r="B151" s="7"/>
-      <c r="C151" s="109" t="s">
-        <v>173</v>
-      </c>
-      <c r="D151" s="110"/>
+      <c r="C151" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="D151" s="87"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -4533,8 +4557,8 @@
     </row>
     <row r="152" spans="2:8" ht="13.5">
       <c r="B152" s="7"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="83"/>
+      <c r="C152" s="84"/>
+      <c r="D152" s="85"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -4542,10 +4566,10 @@
     </row>
     <row r="153" spans="2:8" ht="13.5">
       <c r="B153" s="7"/>
-      <c r="C153" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="D153" s="96"/>
+      <c r="C153" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D153" s="83"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -4553,10 +4577,10 @@
     </row>
     <row r="154" spans="2:8" ht="409.5" customHeight="1">
       <c r="B154" s="7"/>
-      <c r="C154" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="D154" s="110"/>
+      <c r="C154" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="D154" s="87"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -4564,8 +4588,8 @@
     </row>
     <row r="155" spans="2:8" ht="13.5">
       <c r="B155" s="8"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="89"/>
+      <c r="C155" s="106"/>
+      <c r="D155" s="107"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -4573,10 +4597,10 @@
     </row>
     <row r="156" spans="2:8" ht="16.5">
       <c r="B156" s="10"/>
-      <c r="C156" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="D156" s="108"/>
+      <c r="C156" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="79"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -4586,10 +4610,10 @@
       <c r="B157" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C157" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="D157" s="113"/>
+      <c r="C157" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D157" s="92"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -4597,10 +4621,10 @@
     </row>
     <row r="158" spans="2:8" ht="67.5" customHeight="1">
       <c r="B158" s="11"/>
-      <c r="C158" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="D158" s="77"/>
+      <c r="C158" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" s="81"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -4608,10 +4632,10 @@
     </row>
     <row r="159" spans="2:8" ht="16.5">
       <c r="B159" s="11"/>
-      <c r="C159" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="D159" s="77"/>
+      <c r="C159" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" s="81"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4619,10 +4643,10 @@
     </row>
     <row r="160" spans="2:8" ht="16.5">
       <c r="B160" s="11"/>
-      <c r="C160" s="114" t="s">
+      <c r="C160" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D160" s="115"/>
+      <c r="D160" s="94"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -4630,10 +4654,10 @@
     </row>
     <row r="161" spans="2:8" ht="16.5">
       <c r="B161" s="11"/>
-      <c r="C161" s="114" t="s">
-        <v>159</v>
-      </c>
-      <c r="D161" s="115"/>
+      <c r="C161" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="D161" s="94"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -4641,8 +4665,8 @@
     </row>
     <row r="162" spans="2:8" ht="16.5">
       <c r="B162" s="11"/>
-      <c r="C162" s="76"/>
-      <c r="D162" s="77"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="81"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -4650,8 +4674,8 @@
     </row>
     <row r="163" spans="2:8" ht="16.5">
       <c r="B163" s="9"/>
-      <c r="C163" s="105"/>
-      <c r="D163" s="106"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="77"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -4671,7 +4695,7 @@
         <v>14</v>
       </c>
       <c r="C165" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="1"/>
@@ -4878,7 +4902,7 @@
     <row r="184" spans="2:8" ht="13.5">
       <c r="B184" s="55"/>
       <c r="C184" s="60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="1"/>
@@ -4920,50 +4944,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C125:D125"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="C131:D131"/>
     <mergeCell ref="C130:D130"/>
@@ -4980,6 +4960,50 @@
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
